--- a/dokumentation/Tidsredovisning och ganttschema.xlsx
+++ b/dokumentation/Tidsredovisning och ganttschema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~kjell\IT22_tidsredovisning\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33EFD6-67E8-4201-8842-2D60FB83A682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC159C65-56FF-4DAD-A86C-08141728F2AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="3432" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Uppgift</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Databasmodellering</t>
+  </si>
+  <si>
+    <t>Hämta alla aktiviteter</t>
   </si>
 </sst>
 </file>
@@ -250,10 +253,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C5" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C8" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{953EF29B-FFE6-4B55-90A8-79420A181FDA}" name="Datum" totalsRowLabel="Summa"/>
     <tableColumn id="2" xr3:uid="{5395C4F1-EF59-45D6-84E3-08CEDA00E733}" name="Antal lekt" totalsRowFunction="sum"/>
@@ -602,34 +605,34 @@
       <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -868,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E9CCF-0D26-451C-A254-16786B3E784A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>45302</v>
       </c>
       <c r="B2">
@@ -904,7 +907,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>45302</v>
       </c>
       <c r="B3">
@@ -915,7 +918,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>45303</v>
       </c>
       <c r="B4">
@@ -926,12 +929,34 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="12">
+        <v>45307</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45307</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <f>SUBTOTAL(109,Tabell3[Antal lekt])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dokumentation/Tidsredovisning och ganttschema.xlsx
+++ b/dokumentation/Tidsredovisning och ganttschema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~kjell\IT22_tidsredovisning\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC159C65-56FF-4DAD-A86C-08141728F2AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F1263-69B0-452A-A4DE-36F8956289B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="3432" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3432" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planering" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Uppgift</t>
   </si>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C8" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C10" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{953EF29B-FFE6-4B55-90A8-79420A181FDA}" name="Datum" totalsRowLabel="Summa"/>
     <tableColumn id="2" xr3:uid="{5395C4F1-EF59-45D6-84E3-08CEDA00E733}" name="Antal lekt" totalsRowFunction="sum"/>
@@ -871,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E9CCF-0D26-451C-A254-16786B3E784A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,13 +950,46 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>45310</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <f>SUBTOTAL(109,Tabell3[Antal lekt])</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/dokumentation/Tidsredovisning och ganttschema.xlsx
+++ b/dokumentation/Tidsredovisning och ganttschema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~kjell\IT22_tidsredovisning\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F1263-69B0-452A-A4DE-36F8956289B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED91BD-AAAD-4271-9D84-35F24C972FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3432" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Uppgift</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Hämta alla aktiviteter</t>
+  </si>
+  <si>
+    <t>Hämta uppgifter (sida)</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C10" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C13" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{953EF29B-FFE6-4B55-90A8-79420A181FDA}" name="Datum" totalsRowLabel="Summa"/>
     <tableColumn id="2" xr3:uid="{5395C4F1-EF59-45D6-84E3-08CEDA00E733}" name="Antal lekt" totalsRowFunction="sum"/>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E9CCF-0D26-451C-A254-16786B3E784A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,12 +987,34 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="12">
+        <v>45314</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>45314</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <f>SUBTOTAL(109,Tabell3[Antal lekt])</f>
-        <v>12</v>
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/dokumentation/Tidsredovisning och ganttschema.xlsx
+++ b/dokumentation/Tidsredovisning och ganttschema.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\~kjell\IT22_tidsredovisning\dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED91BD-AAAD-4271-9D84-35F24C972FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{166D1657-C11C-4B75-BA77-D222BAF931AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="3432" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4305" windowHeight="3435" activeTab="1" xr2:uid="{137D8F48-3876-4AB4-8993-5CA46DB0EAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planering" sheetId="1" r:id="rId1"/>
     <sheet name="Tidsredovisning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Uppgift</t>
   </si>
@@ -131,6 +132,21 @@
   </si>
   <si>
     <t>Hämta uppgifter (sida)</t>
+  </si>
+  <si>
+    <t>Hämta uppgitfter (datum)</t>
+  </si>
+  <si>
+    <t>Spara ny post</t>
+  </si>
+  <si>
+    <t>Spara ny post (tester)</t>
+  </si>
+  <si>
+    <t>Hämta enkild uppgift</t>
+  </si>
+  <si>
+    <t>Tester Kontrollera indata</t>
   </si>
 </sst>
 </file>
@@ -281,7 +297,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C13" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{207FBF70-B126-4065-8F39-F9D74B46838F}" name="Tabell3" displayName="Tabell3" ref="A1:C19" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{953EF29B-FFE6-4B55-90A8-79420A181FDA}" name="Datum" totalsRowLabel="Summa"/>
     <tableColumn id="2" xr3:uid="{5395C4F1-EF59-45D6-84E3-08CEDA00E733}" name="Antal lekt" totalsRowFunction="sum"/>
@@ -595,13 +611,13 @@
       <selection pane="bottomLeft" activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -637,7 +653,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -647,7 +663,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -656,7 +672,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +681,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -677,7 +693,7 @@
       <c r="Q5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -686,7 +702,7 @@
       </c>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -695,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -704,7 +720,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -713,7 +729,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -722,7 +738,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -731,7 +747,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -740,7 +756,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -749,7 +765,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -759,7 +775,7 @@
       <c r="O14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -768,7 +784,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -777,7 +793,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -787,7 +803,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -796,7 +812,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -805,13 +821,13 @@
       </c>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -822,7 +838,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -831,7 +847,7 @@
       </c>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -859,7 +875,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -874,20 +890,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E9CCF-0D26-451C-A254-16786B3E784A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -898,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>45302</v>
       </c>
@@ -909,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>45302</v>
       </c>
@@ -920,7 +936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>45303</v>
       </c>
@@ -931,7 +947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>45307</v>
       </c>
@@ -942,7 +958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>45307</v>
       </c>
@@ -953,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>45310</v>
       </c>
@@ -964,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>45310</v>
       </c>
@@ -975,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>45310</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>45314</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>45314</v>
       </c>
@@ -1008,13 +1024,79 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>45315</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>45315</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>45317</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>45317</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>45317</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>45320</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B19">
         <f>SUBTOTAL(109,Tabell3[Antal lekt])</f>
-        <v>15.5</v>
+        <v>26.5</v>
       </c>
     </row>
   </sheetData>
